--- a/examples/source2/24.자동으로 성적결과 이메일 보내기/이름_점수_이메일.xlsx
+++ b/examples/source2/24.자동으로 성적결과 이메일 보내기/이름_점수_이메일.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\일잘러 파이썬과 40개의 작품들 코드\24.자동으로 성적결과 이메일 보내기\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D47BE-6B35-43D7-8A73-4A9E5F864229}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,77 +25,75 @@
     <t>이메일</t>
   </si>
   <si>
-    <t>김정훈</t>
-  </si>
-  <si>
-    <t>곽주원</t>
-  </si>
-  <si>
-    <t>김순옥</t>
-  </si>
-  <si>
-    <t>오영진</t>
-  </si>
-  <si>
-    <t>박정자</t>
-  </si>
-  <si>
-    <t>김영미</t>
-  </si>
-  <si>
-    <t>김종수</t>
-  </si>
-  <si>
-    <t>이수빈</t>
-  </si>
-  <si>
-    <t>황순옥</t>
-  </si>
-  <si>
-    <t>윤종수</t>
-  </si>
-  <si>
-    <t>seongjini@example.org</t>
-  </si>
-  <si>
-    <t>minseog60@example.net</t>
-  </si>
-  <si>
-    <t>seungmingim@example.net</t>
-  </si>
-  <si>
-    <t>bgim@example.net</t>
-  </si>
-  <si>
-    <t>gimhaeun@example.net</t>
-  </si>
-  <si>
-    <t>seongsu19@example.net</t>
-  </si>
-  <si>
-    <t>lgwag@example.com</t>
-  </si>
-  <si>
-    <t>ui@example.com</t>
-  </si>
-  <si>
-    <t>munjjac@hanmail.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>munjjac@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>문지아</t>
+  </si>
+  <si>
+    <t>박정웅</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>심재현</t>
+  </si>
+  <si>
+    <t>오준영</t>
+  </si>
+  <si>
+    <t>박서준</t>
+  </si>
+  <si>
+    <t>최예준</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>강현주</t>
+  </si>
+  <si>
+    <t>이명숙</t>
+  </si>
+  <si>
+    <t>gimmyeongja@example.net</t>
+  </si>
+  <si>
+    <t>namjungsu@example.com</t>
+  </si>
+  <si>
+    <t>heohyeonjeong@example.com</t>
+  </si>
+  <si>
+    <t>bagjia@example.net</t>
+  </si>
+  <si>
+    <t>jeongsu83@example.org</t>
+  </si>
+  <si>
+    <t>seoyuni@example.net</t>
+  </si>
+  <si>
+    <t>byeongceol11@example.net</t>
+  </si>
+  <si>
+    <t>sanghocoe@example.com</t>
+  </si>
+  <si>
+    <t>di@example.com</t>
+  </si>
+  <si>
+    <t>jiagim@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,22 +101,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,36 +138,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -232,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,27 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,24 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,16 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -537,13 +465,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -551,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>96</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -565,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -579,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -593,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -607,13 +535,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -621,13 +549,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -635,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -649,13 +577,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -663,18 +591,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2F44C5CC-88B6-4927-9E49-ED3232101957}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{2021E60F-B08C-4D93-A5A4-7DBB09604C4C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>